--- a/biology/Médecine/Norman_Shumway/Norman_Shumway.xlsx
+++ b/biology/Médecine/Norman_Shumway/Norman_Shumway.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Norman Edward Shumway, né le 9 février 1923 et mort le 10 février 2006 d'un cancer du poumon[1], est un chirurgien américain, précurseur de la chirurgie à cœur ouvert et des transplantations cardiaques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Norman Edward Shumway, né le 9 février 1923 et mort le 10 février 2006 d'un cancer du poumon, est un chirurgien américain, précurseur de la chirurgie à cœur ouvert et des transplantations cardiaques.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Norman Shumway est le premier chirurgien à réaliser une transplantation cardiaque aux États-Unis en 1968 avec Randall B. Griepp[2], juste après Christiaan Barnard en Afrique du Sud en 1967.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Norman Shumway est le premier chirurgien à réaliser une transplantation cardiaque aux États-Unis en 1968 avec Randall B. Griepp, juste après Christiaan Barnard en Afrique du Sud en 1967.
 Shumway a été un pionnier de l'usage de la ciclosporine et des immunosuppresseurs en général.
 </t>
         </is>
